--- a/Build Order_Schedule_v1.0.xlsx
+++ b/Build Order_Schedule_v1.0.xlsx
@@ -721,6 +721,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>18040</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104188</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5019675" y="38100"/>
+          <a:ext cx="8076190" cy="4695238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1774,6 +1817,7 @@
     <mergeCell ref="A9:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
